--- a/model_exports/labels/2.0_True_False_1_0.xlsx
+++ b/model_exports/labels/2.0_True_False_1_0.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-933792655041064962</t>
+          <t>t-497139824780787712</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-509432328561885184</t>
+          <t>t-497141925451792384</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-495123711071387649</t>
+          <t>t-497161697371893760</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-511851013155090432</t>
+          <t>t-497242468627124224</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-512006361937616896</t>
+          <t>t-497474058641215489</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-512017939579432960</t>
+          <t>t-497485019451883520</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-571473938481602560</t>
+          <t>t-498854240069373953</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,20 +544,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-759240736864870400</t>
+          <t>t-498919835905327104</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-497136108463865857</t>
+          <t>t-504042718663036928</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,20 +570,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-977115036585021440</t>
+          <t>t-504366068648148992</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-573511311906115584</t>
+          <t>t-504850389129129984</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-573530576818434048</t>
+          <t>t-504998704118394880</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,20 +609,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-638852256234913792</t>
+          <t>t-501732075599593472</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-658615758751211520</t>
+          <t>t-610974241895354368</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-658616745809330176</t>
+          <t>t-624374054338867201</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-658617481574092800</t>
+          <t>t-1027818664391847936</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,33 +661,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-683960479224586240</t>
+          <t>t-1027909740905553920</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-684033292694327296</t>
+          <t>t-1047160746386382848</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-684082364117585920</t>
+          <t>t-498526651912032258</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,50 +700,50 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-684154242035089408</t>
+          <t>t-498546619508609024</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-701855843747241986</t>
+          <t>t-498600191088271361</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-771105696226025472</t>
+          <t>t-498638581536399361</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-784233737512890376</t>
+          <t>t-498641690949713920</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -752,111 +752,111 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-784234780590080001</t>
+          <t>t-498643083517767681</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-798305189924982784</t>
+          <t>t-498648204872015872</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-848784048755531776</t>
+          <t>t-583290347863851008</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-848852185962037248</t>
+          <t>t-648290405872627712</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-848864915762929664</t>
+          <t>t-719525216439910400</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-848891572318072832</t>
+          <t>t-719704738913083392</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-849117747430797312</t>
+          <t>t-887086137789091841</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-849222321772658688</t>
+          <t>t-894637864561987584</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-849255695249625088</t>
+          <t>t-894643508547526657</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-849369868306665472</t>
+          <t>t-894960674811596800</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-849634891255951364</t>
+          <t>t-894974152540553216</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -895,20 +895,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-849637507117568000</t>
+          <t>t-894976401597763584</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-849667565186146304</t>
+          <t>t-895262760954736640</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,154 +921,154 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-849686849312501763</t>
+          <t>t-918248158253273089</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-849743357312024576</t>
+          <t>t-945777508007464961</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-850026468906340353</t>
+          <t>t-956711426009202688</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-850319148420694016</t>
+          <t>t-959172176346836993</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-850426637086842884</t>
+          <t>t-973668678867746816</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-850856929295552513</t>
+          <t>t-973683665661198337</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-875748360933847041</t>
+          <t>t-1006110887999045632</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-889549980888969217</t>
+          <t>t-1006321460951027717</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-889892042435854336</t>
+          <t>t-1030587514820669441</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-890080777769283584</t>
+          <t>t-1030625730407874563</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-893450286144131072</t>
+          <t>t-1031145618503360513</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-894637864561987584</t>
+          <t>t-1031309689848508416</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-894643508547526657</t>
+          <t>t-1052350536111013888</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,24 +1090,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-894960674811596800</t>
+          <t>t-548492147645640704</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-894974152540553216</t>
+          <t>t-975411428663345152</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-894976401597763584</t>
+          <t>t-863147106038624256</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-895262760954736640</t>
+          <t>t-863168507747454977</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1142,24 +1142,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-959172176346836993</t>
+          <t>t-922536592429993985</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-968259732858376192</t>
+          <t>t-503508088964800513</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,20 +1168,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-970872683402539011</t>
+          <t>t-503608708635844608</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1022084644039258112</t>
+          <t>t-573406774969044992</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,46 +1194,46 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1052350536111013888</t>
+          <t>t-573566918876995584</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-513019810272137216</t>
+          <t>t-574621995633111040</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-822160325608734720</t>
+          <t>t-582884078073987072</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-822824168110493696</t>
+          <t>t-582893069168611328</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,63 +1246,63 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-823329247884251137</t>
+          <t>t-615459121891012608</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-694987975168495617</t>
+          <t>t-768798517900906496</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-863147106038624256</t>
+          <t>t-770981711182237696</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-863168507747454977</t>
+          <t>t-893144326049419264</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-934407049034846208</t>
+          <t>t-989808164907319296</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1311,33 +1311,33 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-985698935074369536</t>
+          <t>t-1010157701769281538</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1012224879310057472</t>
+          <t>t-1047054739547013120</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-533166195508117505</t>
+          <t>t-1047068713986547712</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-591245619513163777</t>
+          <t>t-1047079117244399617</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,20 +1363,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-606774570255654912</t>
+          <t>t-1047083573738500096</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-685243474623336449</t>
+          <t>t-506695122298212352</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-744529744385892352</t>
+          <t>t-618483539777093632</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-744534982144757760</t>
+          <t>t-753345702428827652</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,24 +1415,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-841634951439220736</t>
+          <t>t-753345808620105728</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-852681395487035392</t>
+          <t>t-753350269518409728</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-903960318652669952</t>
+          <t>t-788842589554343938</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-903973451970392064</t>
+          <t>t-847556586600095745</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-987586031829569536</t>
+          <t>t-903265153931608064</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-987647086475673600</t>
+          <t>t-752623570010812416</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,11 +1493,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-987928780621668352</t>
+          <t>t-752689111933214722</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,24 +1506,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1010157701769281538</t>
+          <t>t-752696262009450496</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-745595825670131714</t>
+          <t>t-752724839081791488</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-745600923448258560</t>
+          <t>t-767098705790906368</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-878279115006136321</t>
+          <t>t-773307883878363136</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-619513224057061376</t>
+          <t>t-824338590389960704</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-639446444949180417</t>
+          <t>t-903082857492566018</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,11 +1584,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-676063553162379265</t>
+          <t>t-908760840886767616</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -1597,46 +1597,46 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-773307883878363136</t>
+          <t>t-923950718209359874</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-962999495893176320</t>
+          <t>t-923955178688188416</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-611854657594486784</t>
+          <t>t-923988304076464128</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-513123960192794624</t>
+          <t>t-962999495893176320</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,20 +1649,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-768897641946181632</t>
+          <t>t-618395942002102272</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-768901368044134400</t>
+          <t>t-768897641946181632</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-697497279213625344</t>
+          <t>t-768901368044134400</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-697558252012355585</t>
+          <t>t-519554920140124160</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,50 +1701,50 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-770209564532674560</t>
+          <t>t-858145943971037184</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-774727266823581696</t>
+          <t>t-858516314167627776</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-832310546871484416</t>
+          <t>t-676490487717625856</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-927521858815131648</t>
+          <t>t-676517665188507650</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,33 +1753,33 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-978735824383590400</t>
+          <t>t-681802042885697536</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-981162868749033472</t>
+          <t>t-682128192019234816</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-981305166392692736</t>
+          <t>t-682147581405859841</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,11 +1792,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-981306180961275904</t>
+          <t>t-682223092198936576</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,37 +1805,37 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-1000477141224558594</t>
+          <t>t-682287065824931840</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-986144781721104384</t>
+          <t>t-682459381347254272</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-630358013853990912</t>
+          <t>t-682632199527641089</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,46 +1844,46 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-675047436134543360</t>
+          <t>t-682755737790099456</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-743488475874353153</t>
+          <t>t-682908634020470785</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-743501818358042625</t>
+          <t>t-682915879026339840</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-887680971797131264</t>
+          <t>t-683017640638582784</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,33 +1896,33 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-887683274591662080</t>
+          <t>t-683036658942513152</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-887690953800253442</t>
+          <t>t-683077568287866880</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-887715764404449281</t>
+          <t>t-683235960692314112</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,76 +1935,76 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-887751540173414404</t>
+          <t>t-683258563628777472</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-887923666507489280</t>
+          <t>t-683386799184543745</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-887928668626055169</t>
+          <t>t-683399457254326272</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-887976731767918592</t>
+          <t>t-683602691965206528</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-888083621801844737</t>
+          <t>t-683628764622905344</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-955387095228567552</t>
+          <t>t-683644184683753472</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -2013,59 +2013,59 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-1014948759934066688</t>
+          <t>t-683649428587155456</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-543357722591514624</t>
+          <t>t-683773064040050688</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-928583361618169856</t>
+          <t>t-683968472968228864</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-1020278662699134976</t>
+          <t>t-683979793273065473</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-547652103607697408</t>
+          <t>t-684007082555748352</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,11 +2078,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-559857374312529920</t>
+          <t>t-684323489562558465</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-559902019893202944</t>
+          <t>t-685408547975331840</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-843361396750409728</t>
+          <t>t-630358013853990912</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,20 +2117,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-872693400436219904</t>
+          <t>t-687545498014760960</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-611996097129619456</t>
+          <t>t-1014948759934066688</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,102 +2143,102 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-622526710358114306</t>
+          <t>t-583930739512713216</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-624161549528096768</t>
+          <t>t-833840054363619329</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-657221044642684928</t>
+          <t>t-862822528103759872</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-863530798334476291</t>
+          <t>t-936531630868529152</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-876969646846603270</t>
+          <t>t-872693400436219904</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-987722164903251968</t>
+          <t>t-560163999057448960</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-992180383449014272</t>
+          <t>t-622526710358114306</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-992184677086777345</t>
+          <t>t-873219337427062785</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,59 +2247,59 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-575206069833629696</t>
+          <t>t-876969646846603270</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-603598228022501376</t>
+          <t>t-912821640328773633</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-720931143055491072</t>
+          <t>t-985892254756884480</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-598299676807340033</t>
+          <t>t-987722164903251968</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-618586257753374720</t>
+          <t>t-992180383449014272</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,46 +2312,46 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-870660332800397312</t>
+          <t>t-992184677086777345</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-870684149173977089</t>
+          <t>t-1035595539918848000</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-973190028435353600</t>
+          <t>t-658242856386187264</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-1036699556560470016</t>
+          <t>t-737748026983354372</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-828748393916809216</t>
+          <t>t-737752255571595264</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,46 +2377,46 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-829760036348035072</t>
+          <t>t-594613009575579649</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-834484332148297728</t>
+          <t>t-696837842702446592</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-636384018599030785</t>
+          <t>t-1031211148908081152</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-806138760937271296</t>
+          <t>t-607855197835149312</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,24 +2429,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-865899138726100992</t>
+          <t>t-612099863975583744</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-913204200187863040</t>
+          <t>t-612781430335082496</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2455,20 +2455,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-941641219024748544</t>
+          <t>t-612783809587580928</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-988107827615952898</t>
+          <t>t-733769545261944833</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-1003953189820010496</t>
+          <t>t-870660332800397312</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-649543845269667840</t>
+          <t>t-870684149173977089</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,24 +2507,24 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-671936284651196416</t>
+          <t>t-904717770524372993</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-753685864471863300</t>
+          <t>t-948592886060380161</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -2533,11 +2533,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-890798435175063552</t>
+          <t>t-1036699556560470016</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-883080365442838528</t>
+          <t>t-624561158788247552</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,24 +2559,24 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-883215183442739200</t>
+          <t>t-834484332148297728</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-748127558550560768</t>
+          <t>t-784477844240011265</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2585,11 +2585,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-780856348493832192</t>
+          <t>t-962803499766513664</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2598,46 +2598,46 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-782856010625003521</t>
+          <t>t-753685864471863300</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-781685141211058176</t>
+          <t>t-890798435175063552</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-829201577370075136</t>
+          <t>t-733452580194410497</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-829349939947925504</t>
+          <t>t-734825704412446721</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,24 +2650,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-829364075721326592</t>
+          <t>t-734826990281187328</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-829412936661815299</t>
+          <t>t-748127558550560768</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,11 +2676,11 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-977485288892059648</t>
+          <t>t-758205502480388096</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -2689,24 +2689,24 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-888405582352437248</t>
+          <t>t-758575120290091008</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-1039228208804233216</t>
+          <t>t-780856348493832192</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2715,11 +2715,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1042035586717110280</t>
+          <t>t-782856010625003521</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-1025638750783778816</t>
+          <t>t-799981773354463232</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,102 +2741,102 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-924790802882146304</t>
+          <t>t-799998393695305728</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-911670405483651072</t>
+          <t>t-800091318642950144</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-660036667412082688</t>
+          <t>t-892821066799820805</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-660641499701489665</t>
+          <t>t-985241133159796736</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-726041703153545216</t>
+          <t>t-507905858265960448</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-726754497737826305</t>
+          <t>t-514175192319680513</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-746718356405882880</t>
+          <t>t-692385146725646340</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-764530848079155200</t>
+          <t>t-640924573647503360</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2845,11 +2845,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-764927216257949696</t>
+          <t>t-641489320088436736</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2858,20 +2858,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-784456849215123457</t>
+          <t>t-715206020902084609</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-817334752848056320</t>
+          <t>t-715208550243557376</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-817481338974507010</t>
+          <t>t-715210823002562560</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-820042974197334018</t>
+          <t>t-715215011178803200</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,7 +2910,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-900495545885757441</t>
+          <t>t-721832870604640260</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,20 +2923,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-900708018983227393</t>
+          <t>t-721856912548044800</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-978842874749046784</t>
+          <t>t-722873292755828736</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-979067875213234176</t>
+          <t>t-735525963610660865</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,50 +2962,50 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-1026272267364253698</t>
+          <t>t-736203598091190272</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-533407970244456448</t>
+          <t>t-780146894357929984</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-620793830413959168</t>
+          <t>t-784456849215123457</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-628272138890252288</t>
+          <t>t-817334752848056320</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-646027426347155456</t>
+          <t>t-817481338974507010</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,24 +3027,24 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-727306437798576130</t>
+          <t>t-820042974197334018</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-760920272639852545</t>
+          <t>t-821459572263100416</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -3053,11 +3053,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-760967260039106560</t>
+          <t>t-833578679338942464</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -3066,11 +3066,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-760972532421984261</t>
+          <t>t-858067034772566016</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -3079,33 +3079,33 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-760978989359833088</t>
+          <t>t-858109132586483713</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-761017815637696513</t>
+          <t>t-956329812573945857</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-761048712214818816</t>
+          <t>t-1047282657053298690</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-761049587066867712</t>
+          <t>t-1050012662120235008</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,20 +3131,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-761050328493985794</t>
+          <t>t-697902764966301696</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-761057847262142465</t>
+          <t>t-886785151694512128</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,20 +3157,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-885230061556813824</t>
+          <t>t-886797636501520384</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-885519574443020288</t>
+          <t>t-886952472035549185</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,20 +3183,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1008536493269237760</t>
+          <t>t-887152237432061952</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-619624637685755904</t>
+          <t>t-887308832208293888</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,20 +3209,20 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-655463817921626112</t>
+          <t>t-888147986982649856</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-958376851084337153</t>
+          <t>t-1016850546236542983</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,11 +3235,11 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1042440160749780992</t>
+          <t>t-683790340701073408</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -3248,20 +3248,20 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-594878604397432832</t>
+          <t>t-796087988140834817</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-653152901892739072</t>
+          <t>t-1042440160749780992</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,11 +3274,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-653993411570192384</t>
+          <t>t-1050781684117987329</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-673837939248472064</t>
+          <t>t-538650662780022784</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,33 +3300,33 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-721969035412422656</t>
+          <t>t-647384012202356736</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-722671206881746944</t>
+          <t>t-648159002224914436</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-775760180936048640</t>
+          <t>t-648232794137718784</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-775760740204552192</t>
+          <t>t-648426685910618112</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,46 +3352,46 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-775766510182731776</t>
+          <t>t-726061174727532544</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-775772257327128576</t>
+          <t>t-745683270160027648</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-775805122920189952</t>
+          <t>t-845940693256286208</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-776165588917944320</t>
+          <t>t-856624832292827137</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-799654742746165248</t>
+          <t>t-913153226706472965</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-845940693256286208</t>
+          <t>t-936972059766415360</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,33 +3430,33 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-849475288652238849</t>
+          <t>t-1003317489990848512</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-953220290657492992</t>
+          <t>t-1003350897521459202</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-538818433920827392</t>
+          <t>t-1003359993201025024</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,24 +3469,24 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-741861803148214272</t>
+          <t>t-1003379549600731139</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-646786233809539072</t>
+          <t>t-1006258184636510210</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3495,33 +3495,33 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-696805827110428676</t>
+          <t>t-1061999891080232961</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-1026494793466048518</t>
+          <t>t-1063070010954932224</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-549835920762220544</t>
+          <t>t-1063412203389370368</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,24 +3534,24 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-655077150693990401</t>
+          <t>t-1063455159370637313</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-666910428551897088</t>
+          <t>t-1063463128409800704</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-702894496737071105</t>
+          <t>t-1063508201319079936</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,11 +3573,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-795702151049834496</t>
+          <t>t-1063552348386140165</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -3586,11 +3586,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-560425264807944193</t>
+          <t>t-538818433920827392</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3599,20 +3599,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-610512692353310721</t>
+          <t>t-741861803148214272</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-610555659969409025</t>
+          <t>t-910953097316376576</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-636560790015877120</t>
+          <t>t-910955895714123776</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,7 +3638,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-636561226298970112</t>
+          <t>t-1045126070540865541</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,7 +3651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-636561581355204609</t>
+          <t>t-545590349045833728</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,11 +3664,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-636600809573220352</t>
+          <t>t-655077150693990401</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -3677,11 +3677,11 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-636742652692688896</t>
+          <t>t-663721804310122496</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3690,24 +3690,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-686490326228402176</t>
+          <t>t-666910428551897088</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-687307828932030464</t>
+          <t>t-698062078922375169</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3716,37 +3716,37 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-698124151282864129</t>
+          <t>t-951353773321945088</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-698267386730975232</t>
+          <t>t-951370648210767877</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-698288943490535428</t>
+          <t>t-560425264807944193</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3755,20 +3755,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-698457478183301120</t>
+          <t>t-649689751415599105</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-698469723680464897</t>
+          <t>t-570999709160116224</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,11 +3781,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-698599200850898944</t>
+          <t>t-571255966727053312</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -3794,20 +3794,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-698812315353903104</t>
+          <t>t-592720340289224705</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-628489671656517632</t>
+          <t>t-636560790015877120</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,7 +3820,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-800018818399694848</t>
+          <t>t-636561226298970112</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,20 +3833,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-800716652195282946</t>
+          <t>t-636561581355204609</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-854766668387684352</t>
+          <t>t-636600809573220352</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,7 +3859,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-855160087563907072</t>
+          <t>t-636742652692688896</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,7 +3872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-855212425251086337</t>
+          <t>t-698124151282864129</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-891969624929075201</t>
+          <t>t-698267386730975232</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,7 +3898,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-892105609071349760</t>
+          <t>t-698288943490535428</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-892129259686428672</t>
+          <t>t-698457478183301120</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,11 +3924,11 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-981529575271337984</t>
+          <t>t-698469723680464897</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3937,20 +3937,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-992126872036233224</t>
+          <t>t-698599200850898944</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-993085432052273153</t>
+          <t>t-698812315353903104</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,46 +3963,46 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-567287806645395457</t>
+          <t>t-632590097284734976</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-615316042294890496</t>
+          <t>t-880769643060842496</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-645024639639535616</t>
+          <t>t-984138305477505025</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-648439576441171968</t>
+          <t>t-992126872036233224</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,50 +4015,50 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-649621017187512320</t>
+          <t>t-993085432052273153</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-995839519449640960</t>
+          <t>t-1049061003617607680</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-572732322178572288</t>
+          <t>t-1049351090909667329</t>
         </is>
       </c>
       <c r="B278" t="n">
         <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-572748274618277888</t>
+          <t>t-1050209065153036288</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -4067,37 +4067,37 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-572762505111580673</t>
+          <t>t-567287806645395457</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-573486943880638464</t>
+          <t>t-651859489713291264</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-573279947445420034</t>
+          <t>t-652540388272553984</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -4106,33 +4106,33 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-831479807821103104</t>
+          <t>t-652542102539235329</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-831825002534154241</t>
+          <t>t-892449776129777665</t>
         </is>
       </c>
       <c r="B284" t="n">
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-839501967894405121</t>
+          <t>t-892462041277091840</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,11 +4145,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-839604530048299008</t>
+          <t>t-892471980875808773</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -4158,11 +4158,11 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-887004122628710405</t>
+          <t>t-892472490483646466</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -4171,20 +4171,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-887017424306008065</t>
+          <t>t-892606487482089472</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-889534953825779712</t>
+          <t>t-892633367342088192</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,11 +4197,11 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-889639312169500672</t>
+          <t>t-892700840817045504</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -4210,20 +4210,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-893133071528202241</t>
+          <t>t-892731725897281538</t>
         </is>
       </c>
       <c r="B291" t="n">
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-960911174505238534</t>
+          <t>t-897976904019476481</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,20 +4236,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-1033036271491461120</t>
+          <t>t-900702851202207746</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-1052977443760427009</t>
+          <t>t-924289234399322112</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-1057298961642471425</t>
+          <t>t-893133071528202241</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,7 +4275,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-1002347419114311681</t>
+          <t>t-960911174505238534</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,7 +4288,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-821077876112035840</t>
+          <t>t-1027967787312939008</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-821090113476325376</t>
+          <t>t-874804635327905792</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-599007393494605824</t>
+          <t>t-1050145290718564352</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,20 +4327,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-599125027116568576</t>
+          <t>t-601584910428729344</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-669944728155090944</t>
+          <t>t-912188711261036544</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,7 +4353,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-766980130283610112</t>
+          <t>t-912397778260840448</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,20 +4366,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-607899372177747968</t>
+          <t>t-912428211253972997</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-1049725086469685248</t>
+          <t>t-975332165528576000</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,11 +4392,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-639100384343101440</t>
+          <t>t-880261784304631810</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -4405,24 +4405,24 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-636961984953630720</t>
+          <t>t-644964294954741760</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-646070620120215552</t>
+          <t>t-914224756555055104</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-646419866795118592</t>
+          <t>t-622598644009668608</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,20 +4444,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-677918822104473600</t>
+          <t>t-631280418583658496</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-1006709802775412736</t>
+          <t>t-636961984953630720</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,7 +4470,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-655890642334257152</t>
+          <t>t-1055172080499515392</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,59 +4483,59 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-678946767459618818</t>
+          <t>t-1055204302220943368</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-679082878148341760</t>
+          <t>t-719978473687633922</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-919294420465229824</t>
+          <t>t-671722697408290816</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-661127792231321600</t>
+          <t>t-677918822104473600</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-803234433000148994</t>
+          <t>t-895489338364055553</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,7 +4548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-803236909183107073</t>
+          <t>t-981921278876684288</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,20 +4561,20 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-803260822801649664</t>
+          <t>t-876856640372387842</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-803260889940062209</t>
+          <t>t-886426015374946304</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,24 +4587,24 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-803271446357282816</t>
+          <t>t-1027575306226475008</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-727600217265049600</t>
+          <t>t-910961880700559360</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-685125009120038913</t>
+          <t>t-677631116958896129</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,46 +4626,46 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-692348550416633857</t>
+          <t>t-803284826191171584</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-694804362510503936</t>
+          <t>t-846003285282697216</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-736405703838044160</t>
+          <t>t-848401927432019970</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-842138233173626880</t>
+          <t>t-720246081364365312</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,7 +4678,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-842141623454687232</t>
+          <t>t-720295493985677312</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,7 +4691,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-842494366820286465</t>
+          <t>t-1016527492478328832</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,11 +4704,11 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-715468390047961088</t>
+          <t>t-756636337130774528</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4717,7 +4717,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-859881873865973760</t>
+          <t>t-843607928133292033</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,7 +4730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-859891336627048448</t>
+          <t>t-996559091932770305</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-859891655167664129</t>
+          <t>t-764984507686490112</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,37 +4756,37 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-931989476401926144</t>
+          <t>t-781155273763192832</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-981289690258071552</t>
+          <t>t-783618446827356161</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-853267425386803200</t>
+          <t>t-784456852864065536</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-913012097595867137</t>
+          <t>t-788788619779665920</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,24 +4808,24 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1016527492478328832</t>
+          <t>t-812266777711431682</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-751165986527674368</t>
+          <t>t-852608222380924929</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4834,37 +4834,37 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-751167208219406336</t>
+          <t>t-852804949515698178</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-1044155993779851264</t>
+          <t>t-855194797681897472</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-761251305100902400</t>
+          <t>t-855248575567147008</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4873,11 +4873,11 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-1035527464511053825</t>
+          <t>t-939854628749004801</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -4886,7 +4886,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-756636337130774528</t>
+          <t>t-849301263959420929</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-1016293496980955136</t>
+          <t>t-884885746984681473</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-765596657039708160</t>
+          <t>t-884938114657128448</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-766010493563568129</t>
+          <t>t-882704580865404928</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,20 +4938,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-768829814824247296</t>
+          <t>t-906573891346165760</t>
         </is>
       </c>
       <c r="B347" t="n">
         <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-768861970195881986</t>
+          <t>t-1052284815779622917</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-768886684955975680</t>
+          <t>t-1052565742183272454</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-769194684576960513</t>
+          <t>t-1052712831517450241</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,11 +4990,11 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-847243626082050048</t>
+          <t>t-907371676148670465</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -5003,24 +5003,24 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-847412512383356932</t>
+          <t>t-955145334002417666</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-847416452424519680</t>
+          <t>t-974764041968132096</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -5029,11 +5029,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-847625871712112640</t>
+          <t>t-974840717116956673</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -5042,11 +5042,11 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-847873968065433600</t>
+          <t>t-1034792477096652801</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-848285144846921728</t>
+          <t>t-499943241962487808</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,11 +5068,11 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-848349687950266373</t>
+          <t>t-542806015075713026</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
         <v>1</v>
@@ -5081,7 +5081,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-848632201470259200</t>
+          <t>t-616316575658807296</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,24 +5094,24 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-848638922687221760</t>
+          <t>t-927695512287043584</t>
         </is>
       </c>
       <c r="B359" t="n">
         <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-848870222769606658</t>
+          <t>t-965605976698126341</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -5120,24 +5120,24 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-848971430775709697</t>
+          <t>t-970747848747778048</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-849083151532032000</t>
+          <t>t-1040961500553388033</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -5146,20 +5146,20 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-849228504088670208</t>
+          <t>t-513212132176175105</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-939854628749004801</t>
+          <t>t-1027253242261069824</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,20 +5172,20 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-834760589746569216</t>
+          <t>t-635439309563260929</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-966639239407525888</t>
+          <t>t-635461097114484736</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,46 +5198,46 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-882704580865404928</t>
+          <t>t-635467880918818816</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1034597062573211651</t>
+          <t>t-635469518022803456</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-894457279076020224</t>
+          <t>t-635491308438728704</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1052284815779622917</t>
+          <t>t-635718998781390848</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,72 +5250,72 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1052565742183272454</t>
+          <t>t-636228687013265410</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-1052712831517450241</t>
+          <t>t-776037646023925760</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-905261367573090305</t>
+          <t>t-950172807996026880</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-1045400324041846785</t>
+          <t>t-950367246299394048</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-1042831980822454273</t>
+          <t>t-1006187748338864128</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-1042864703981084672</t>
+          <t>t-1006198330727247872</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,7 +5328,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-1042868533963776005</t>
+          <t>t-1006207380676280320</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,59 +5341,59 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-1043255346553389058</t>
+          <t>t-1006582449827209216</t>
         </is>
       </c>
       <c r="B378" t="n">
         <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-621860106481762304</t>
+          <t>t-676836902981513216</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-702986489890775040</t>
+          <t>t-750337554457694208</t>
         </is>
       </c>
       <c r="B380" t="n">
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-703410728628305920</t>
+          <t>t-869830075268685825</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-859937675339497473</t>
+          <t>t-801681235982557184</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,33 +5406,33 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-1016375311733284864</t>
+          <t>t-1001002093895921665</t>
         </is>
       </c>
       <c r="B383" t="n">
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-642734533335453700</t>
+          <t>t-1027294707855048705</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-786070938412515329</t>
+          <t>t-901639048464388096</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,37 +5445,37 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-786266752061669376</t>
+          <t>t-901662243594612737</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-786287404416135168</t>
+          <t>t-901835893232857088</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-786588204170346496</t>
+          <t>t-901991202857377792</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -5484,11 +5484,11 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-786674211528015873</t>
+          <t>t-902096694422228992</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -5497,20 +5497,20 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-819436418263031808</t>
+          <t>t-902156696407216129</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-519900708980948992</t>
+          <t>t-902188288789925889</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,20 +5523,20 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-782797044729741312</t>
+          <t>t-902258946840313856</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-523536371525623808</t>
+          <t>t-902339386959958016</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,7 +5549,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-737154199411122176</t>
+          <t>t-902474134315302912</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,7 +5562,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-782797451639914497</t>
+          <t>t-586533262912315392</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,7 +5575,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-800968114653401088</t>
+          <t>t-642554131211755524</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-580349296182198273</t>
+          <t>t-738967171397758976</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,11 +5601,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-819866466162012160</t>
+          <t>t-782797451639914497</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -5614,11 +5614,11 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-875802481292439553</t>
+          <t>t-832598430291730433</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -5627,20 +5627,20 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-1027585082050207745</t>
+          <t>t-595202959648096256</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-577791187240787968</t>
+          <t>t-676099835372654592</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,63 +5653,63 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-578574154607280128</t>
+          <t>t-788324770765008896</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-595190714205634560</t>
+          <t>t-538674754086244353</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-629222720161640449</t>
+          <t>t-544508576757477376</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-642582982285504512</t>
+          <t>t-544546124984762370</t>
         </is>
       </c>
       <c r="B405" t="n">
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-691624168824115200</t>
+          <t>t-544574124832468992</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -5718,11 +5718,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-691706624386404353</t>
+          <t>t-544578399596187648</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -5731,11 +5731,11 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-704942166137806848</t>
+          <t>t-544615900180393984</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -5744,20 +5744,20 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-704999838627340289</t>
+          <t>t-544793457190268928</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-705097327791443968</t>
+          <t>t-544806009018265601</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,33 +5770,33 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-706027191709077505</t>
+          <t>t-545012520793436160</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-706161724236423169</t>
+          <t>t-545215683404267523</t>
         </is>
       </c>
       <c r="B412" t="n">
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-706568676607205384</t>
+          <t>t-591871892283334656</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-706777295768461313</t>
+          <t>t-608655874496692224</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,20 +5822,20 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-706777701902917632</t>
+          <t>t-609338660572536832</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-706793199285739522</t>
+          <t>t-609783303168782337</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,7 +5848,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-707823125115879424</t>
+          <t>t-610483675487203328</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-707871375474749441</t>
+          <t>t-629222720161640449</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,33 +5874,33 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-748093412272910336</t>
+          <t>t-634983488203177984</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-769394896344064001</t>
+          <t>t-691624168824115200</t>
         </is>
       </c>
       <c r="B420" t="n">
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-787588682731626496</t>
+          <t>t-691706624386404353</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,7 +5913,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-806453539409162240</t>
+          <t>t-704942166137806848</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,20 +5926,20 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-806476961451216896</t>
+          <t>t-704999838627340289</t>
         </is>
       </c>
       <c r="B423" t="n">
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-809171890690523137</t>
+          <t>t-705097327791443968</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,20 +5952,20 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-842006165705875457</t>
+          <t>t-706027191709077505</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-913063437118341121</t>
+          <t>t-706161724236423169</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,63 +5978,63 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-954338199610019841</t>
+          <t>t-706568676607205384</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-954407598069084160</t>
+          <t>t-706777295768461313</t>
         </is>
       </c>
       <c r="B428" t="n">
         <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-954798702530412546</t>
+          <t>t-706777701902917632</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-955111272852414464</t>
+          <t>t-706793199285739522</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-955374632034594816</t>
+          <t>t-707823125115879424</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -6043,24 +6043,24 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-955380505121259520</t>
+          <t>t-707871375474749441</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-955409675251482624</t>
+          <t>t-769394896344064001</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -6069,20 +6069,20 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-955739643634421760</t>
+          <t>t-806453539409162240</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-955742558189162496</t>
+          <t>t-806476961451216896</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,20 +6095,20 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-955766281730445313</t>
+          <t>t-914844848359985152</t>
         </is>
       </c>
       <c r="B436" t="n">
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-955807241533304833</t>
+          <t>t-915131811310714880</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,20 +6121,20 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-956101750120857601</t>
+          <t>t-915495031691235329</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-956220929067151360</t>
+          <t>t-915561177966505984</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,20 +6147,20 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-956413340225589248</t>
+          <t>t-977899948724379649</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-956438932681523200</t>
+          <t>t-987423120817643520</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,11 +6173,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-956447631714279424</t>
+          <t>t-1006399568249008128</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6186,72 +6186,72 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-956464588559671297</t>
+          <t>t-1006422910762995712</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-956513066228834304</t>
+          <t>t-1006422931839299584</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-965524750264135680</t>
+          <t>t-1006427045709180929</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-966320851678318593</t>
+          <t>t-1006463635693203456</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-967380419707535360</t>
+          <t>t-653928809671081984</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-974595772317659137</t>
+          <t>t-740095983602782208</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,33 +6264,33 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1001548678748954624</t>
+          <t>t-623733200322449409</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-1001557802375110657</t>
+          <t>t-629936150220685312</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-1008363588552151040</t>
+          <t>t-818362228881719296</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,11 +6303,11 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1060529365962948608</t>
+          <t>t-818369931054030848</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
         <v>1</v>
@@ -6316,72 +6316,72 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-580823195311276032</t>
+          <t>t-818390305326137344</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-722777139469283328</t>
+          <t>t-818474161949601796</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-653928809671081984</t>
+          <t>t-818513625468010496</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-1014607937048850434</t>
+          <t>t-818701658280628224</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-1056877276875374593</t>
+          <t>t-818709014498443264</t>
         </is>
       </c>
       <c r="B457" t="n">
         <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-623733200322449409</t>
+          <t>t-819113813505146880</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,20 +6394,20 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-818362228881719296</t>
+          <t>t-820214611416928256</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-818369931054030848</t>
+          <t>t-828957006832795648</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-818390305326137344</t>
+          <t>t-831105804946247681</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,11 +6433,11 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-818474161949601796</t>
+          <t>t-1057351782484115458</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -6446,37 +6446,37 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-818513625468010496</t>
+          <t>t-567369806647951362</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-818701658280628224</t>
+          <t>t-567639888489500672</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-818709014498443264</t>
+          <t>t-960782723957870592</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -6485,20 +6485,20 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-819113813505146880</t>
+          <t>t-999158779580121089</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-820214611416928256</t>
+          <t>t-670699425879191552</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-1034815239219539970</t>
+          <t>t-577532478912663552</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-999158779580121089</t>
+          <t>t-756468934379966464</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,46 +6537,46 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-633755138834874368</t>
+          <t>t-970012076428193796</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-577532478912663552</t>
+          <t>t-580746776262545409</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-778479315071664128</t>
+          <t>t-837336632667877376</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-861227956118716416</t>
+          <t>t-993886363249455104</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,20 +6589,20 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-970012076428193796</t>
+          <t>t-1005061843843289088</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-722410262058397697</t>
+          <t>t-581115572282376192</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,50 +6615,50 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-764514429736132609</t>
+          <t>t-583486848426713088</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-764618483195838464</t>
+          <t>t-712917955391172609</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-859839256700882944</t>
+          <t>t-742289179535659008</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-860843222091935744</t>
+          <t>t-743359058392940544</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
         <v>0</v>
@@ -6667,7 +6667,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-861496628741640192</t>
+          <t>t-737572670372339712</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,33 +6680,33 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1003856366128259073</t>
+          <t>t-895521975434530816</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-742289179535659008</t>
+          <t>t-895525136580923394</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-743359058392940544</t>
+          <t>t-956419595136585729</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,37 +6719,37 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-583674889480962049</t>
+          <t>t-955539710214057984</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-737201412497649664</t>
+          <t>t-955816204769390593</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-737877218718797825</t>
+          <t>t-949260261575229441</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -6758,7 +6758,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-738015379373625344</t>
+          <t>t-608642817427156992</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,20 +6771,20 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-738097397058932736</t>
+          <t>t-608689054549471232</t>
         </is>
       </c>
       <c r="B488" t="n">
         <v>1</v>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-738253541266075652</t>
+          <t>t-609461898141147136</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,33 +6797,33 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-738419452778274816</t>
+          <t>t-867803560930627585</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-738714074352123904</t>
+          <t>t-868025997010055168</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-590431507967299584</t>
+          <t>t-868097086021095425</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-743692015158726656</t>
+          <t>t-869075299467763714</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,46 +6849,46 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-743726128003588096</t>
+          <t>t-1019348620489969664</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-592904512131768321</t>
+          <t>t-760350969154723840</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-595251975568109568</t>
+          <t>t-907976446286680066</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-740222976763830272</t>
+          <t>t-908018109373730816</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-740225059193819140</t>
+          <t>t-1032956238051659778</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,20 +6914,20 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-740231562940297216</t>
+          <t>t-652058053697765376</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-740233568627068929</t>
+          <t>t-653076415596888064</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,33 +6940,33 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-740511241383387136</t>
+          <t>t-925429606693457921</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-741661270017970176</t>
+          <t>t-984045729260982272</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-892583343426072576</t>
+          <t>t-652148120952803329</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,37 +6979,37 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-594549643134009344</t>
+          <t>t-908615579501780992</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-720146113794183169</t>
+          <t>t-910016271554576384</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-594811114661228544</t>
+          <t>t-669879511748579329</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -7018,24 +7018,24 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-595126127343116288</t>
+          <t>t-670195512713330689</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-800696529770151938</t>
+          <t>t-1005827335977885696</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
         <v>1</v>
@@ -7044,11 +7044,11 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-955871714914766849</t>
+          <t>t-695507166833184769</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
         <v>1</v>
@@ -7057,24 +7057,24 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-776349771640496128</t>
+          <t>t-948994988666425345</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-1019348620489969664</t>
+          <t>t-949010413437497347</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
         <v>1</v>
@@ -7083,7 +7083,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-760350969154723840</t>
+          <t>t-949151246799142913</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,20 +7096,20 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-997420355043102720</t>
+          <t>t-950677684811640833</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-769927127475097602</t>
+          <t>t-704826129178370050</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-641169109116293120</t>
+          <t>t-708088836748910592</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,85 +7135,85 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-899696948046856192</t>
+          <t>t-715965241637470208</t>
         </is>
       </c>
       <c r="B516" t="n">
         <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-1035170375703961601</t>
+          <t>t-897572628667478020</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-1035201829989056512</t>
+          <t>t-852243165302198273</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-1035614467998998530</t>
+          <t>t-728492484175745024</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-1006630570447777793</t>
+          <t>t-751418791951790080</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-652058053697765376</t>
+          <t>t-957930793187397632</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-653076415596888064</t>
+          <t>t-743471999876472833</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,11 +7226,11 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-656425382145597440</t>
+          <t>t-890865444307042304</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
         <v>0</v>
@@ -7239,11 +7239,11 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-908615579501780992</t>
+          <t>t-957301618868965376</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
         <v>0</v>
@@ -7252,7 +7252,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-666556746308198401</t>
+          <t>t-737976116753883136</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-671784280259866624</t>
+          <t>t-738434736910176256</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,76 +7278,76 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-674905913438769153</t>
+          <t>t-884308996835991554</t>
         </is>
       </c>
       <c r="B527" t="n">
         <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-681422251338674177</t>
+          <t>t-952868151414403072</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-701060752074010624</t>
+          <t>t-956210090935312384</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-708088836748910592</t>
+          <t>t-956914853922459649</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-720951969716809728</t>
+          <t>t-957307123943256064</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-852243165302198273</t>
+          <t>t-958391208602193920</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
         <v>0</v>
@@ -7356,7 +7356,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-737663862317682689</t>
+          <t>t-902928093131808770</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,7 +7369,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-737736248970911744</t>
+          <t>t-740042390703099904</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,20 +7382,20 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1003603539539742720</t>
+          <t>t-740196910300962816</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-737766517157330945</t>
+          <t>t-740517137236647936</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,7 +7408,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-737944067741454336</t>
+          <t>t-753159226390962176</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-955134939699310592</t>
+          <t>t-754249103434022912</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,20 +7434,20 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-737976116753883136</t>
+          <t>t-760420119554076674</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-738434736910176256</t>
+          <t>t-765679686244454400</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,7 +7460,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-956210090935312384</t>
+          <t>t-767290506456039424</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,33 +7473,33 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-956914853922459649</t>
+          <t>t-792319235351535616</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-957307123943256064</t>
+          <t>t-819911710349922305</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-738250548865032192</t>
+          <t>t-831171283400409088</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,33 +7512,33 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-738751926372827136</t>
+          <t>t-861335479475634176</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-1005463006455754752</t>
+          <t>t-946052034461040640</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-743816866171326464</t>
+          <t>t-887201249715789824</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,7 +7551,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-746386418465914880</t>
+          <t>t-892499939137335296</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,33 +7564,33 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-748138953241464832</t>
+          <t>t-894025914476105728</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-775632377695600641</t>
+          <t>t-956067919263346688</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-906552804285861889</t>
+          <t>t-956083408882536448</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,7 +7603,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-834086991646048256</t>
+          <t>t-958848005502681088</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,37 +7616,37 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-834349788053266432</t>
+          <t>t-959068004729475072</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-844564313012670464</t>
+          <t>t-1030184521969410055</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-952289558770651136</t>
+          <t>t-675498810152325120</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -7655,11 +7655,11 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-952536637413584897</t>
+          <t>t-845604671851057152</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C556" t="n">
         <v>1</v>
@@ -7668,11 +7668,11 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-952649290148704259</t>
+          <t>t-898971629665099776</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C557" t="n">
         <v>1</v>
@@ -7681,11 +7681,11 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-952989314534617088</t>
+          <t>t-512537797442273280</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
         <v>1</v>
@@ -7694,33 +7694,33 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-990385513898094592</t>
+          <t>t-529938272265703424</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-867414851802599424</t>
+          <t>t-566257094865981440</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-946052034461040640</t>
+          <t>t-579789832131575808</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,7 +7733,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-886643817893560320</t>
+          <t>t-580874616324943872</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,7 +7746,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-905976569503592449</t>
+          <t>t-616630261191716864</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,11 +7759,11 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-906394228602949632</t>
+          <t>t-674391856298385408</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-906936222282547201</t>
+          <t>t-674458539629219844</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,11 +7785,11 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-906965286787710976</t>
+          <t>t-686071224749821953</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
         <v>1</v>
@@ -7798,33 +7798,33 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-907173357510184965</t>
+          <t>t-719019371499130881</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-907196691270569985</t>
+          <t>t-730666173340209152</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-938446444700237824</t>
+          <t>t-740084104088199168</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,20 +7837,20 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-955559981331419136</t>
+          <t>t-823528889578377221</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-955806828146827266</t>
+          <t>t-823565116511617024</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,11 +7863,11 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-988749833476325376</t>
+          <t>t-823567614731382784</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C572" t="n">
         <v>1</v>
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-1004723222363955200</t>
+          <t>t-823729659921760256</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,7 +7889,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-1028077071480832000</t>
+          <t>t-823776797145763840</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,11 +7902,11 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-590545916886659072</t>
+          <t>t-823797969539338240</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C575" t="n">
         <v>0</v>
@@ -7915,11 +7915,11 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-845604671851057152</t>
+          <t>t-824162412861464576</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C576" t="n">
         <v>1</v>
@@ -7928,33 +7928,33 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-898971629665099776</t>
+          <t>t-824171170761162752</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-500549350234554368</t>
+          <t>t-824209269432012802</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-537546537975685120</t>
+          <t>t-824256850644176897</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-537578272348205056</t>
+          <t>t-824424167730655233</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,7 +7980,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-537578565139582976</t>
+          <t>t-824425957838581760</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,7 +7993,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-537896255347646465</t>
+          <t>t-824537640233889792</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,63 +8006,63 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-556228745443282944</t>
+          <t>t-824596362859667456</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-566257094865981440</t>
+          <t>t-824596669597569025</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-572446866039697408</t>
+          <t>t-824814008108593152</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-575891615593721856</t>
+          <t>t-824990518815842304</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-579789832131575808</t>
+          <t>t-825140161293934594</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C587" t="n">
         <v>0</v>
@@ -8071,11 +8071,11 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-580874616324943872</t>
+          <t>t-825322589002149888</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C588" t="n">
         <v>0</v>
@@ -8084,37 +8084,37 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-643644357350948864</t>
+          <t>t-825486203914842112</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-648493309824925696</t>
+          <t>t-835120033412038656</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-664426560234110976</t>
+          <t>t-912643743894949888</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,33 +8123,33 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-683238954309566464</t>
+          <t>t-925890248541794304</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-683901242314067968</t>
+          <t>t-940565575226372102</t>
         </is>
       </c>
       <c r="B593" t="n">
         <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-815395045314560000</t>
+          <t>t-940637216757477377</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-815855888129028096</t>
+          <t>t-944057571853287424</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
         <v>1</v>
@@ -8175,33 +8175,33 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-815865821570289668</t>
+          <t>t-970475324591915008</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-815882427159678976</t>
+          <t>t-994075228354510848</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-815960345336545280</t>
+          <t>t-509160710316650496</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,20 +8214,20 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-816280699388841984</t>
+          <t>t-509293535221145601</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-823528889578377221</t>
+          <t>t-632870673115774976</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,24 +8240,24 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-823565116511617024</t>
+          <t>t-675258412049956865</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-823567614731382784</t>
+          <t>t-697693466298552321</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
         <v>1</v>
@@ -8266,33 +8266,33 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-823729659921760256</t>
+          <t>t-697911341554610176</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-823776797145763840</t>
+          <t>t-710310372985741313</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-823797969539338240</t>
+          <t>t-727016962102980608</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-824162412861464576</t>
+          <t>t-727141031607595008</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,72 +8318,72 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-824171170761162752</t>
+          <t>t-772650812623290373</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-824209269432012802</t>
+          <t>t-772781827224285184</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-824256850644176897</t>
+          <t>t-773074057805737984</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-824424167730655233</t>
+          <t>t-820295860747542529</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-824425957838581760</t>
+          <t>t-820993538456289280</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-824537640233889792</t>
+          <t>t-948796201708675072</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,20 +8396,20 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-824596362859667456</t>
+          <t>t-948886764244033537</t>
         </is>
       </c>
       <c r="B613" t="n">
         <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-824596669597569025</t>
+          <t>t-519137345065320448</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,20 +8422,20 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-824814008108593152</t>
+          <t>t-527780384159703040</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-824990518815842304</t>
+          <t>t-545488523856338944</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-825140161293934594</t>
+          <t>t-561132509098827778</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-825322589002149888</t>
+          <t>t-580217985706528769</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-825486203914842112</t>
+          <t>t-669092226840981504</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-837558511772938241</t>
+          <t>t-721601854761619457</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-837704571640246272</t>
+          <t>t-721697193174798336</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-914672240901287936</t>
+          <t>t-736424760335179778</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,33 +8526,33 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-921445800072298496</t>
+          <t>t-740813200766214144</t>
         </is>
       </c>
       <c r="B623" t="n">
         <v>0</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-922085813818658816</t>
+          <t>t-794478910901624834</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-978263707544305664</t>
+          <t>t-794502218061750272</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-511340405753786369</t>
+          <t>t-918078962173075457</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,11 +8578,11 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-710310372985741313</t>
+          <t>t-918257100547014658</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C627" t="n">
         <v>1</v>
@@ -8591,24 +8591,24 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-782517721938300928</t>
+          <t>t-928491239808233473</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-820295860747542529</t>
+          <t>t-928882270554877953</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
         <v>1</v>
@@ -8617,46 +8617,46 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-820993538456289280</t>
+          <t>t-928900503953588224</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-827493643661381632</t>
+          <t>t-928967839649804289</t>
         </is>
       </c>
       <c r="B631" t="n">
         <v>1</v>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-864437375618830336</t>
+          <t>t-929323628226686976</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-916572694472155137</t>
+          <t>t-973099299910250497</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,50 +8669,50 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-922122902136172545</t>
+          <t>t-578162074741661696</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-985916719981060097</t>
+          <t>t-546954418067738625</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-985984041508720641</t>
+          <t>t-547052080943214593</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-574404715376603136</t>
+          <t>t-547052404026249217</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C637" t="n">
         <v>1</v>
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-580217985706528769</t>
+          <t>t-547288951820521472</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-605261202822807552</t>
+          <t>t-547333815882887168</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-605672293654654976</t>
+          <t>t-547368132457689088</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,20 +8760,20 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-659219094017708032</t>
+          <t>t-547431547935412224</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-669092226840981504</t>
+          <t>t-547610562692009985</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,20 +8786,20 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-708275780988473345</t>
+          <t>t-547694551637700608</t>
         </is>
       </c>
       <c r="B643" t="n">
         <v>1</v>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-709001129091174403</t>
+          <t>t-592295516517502976</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-709281433978687488</t>
+          <t>t-689784474884648961</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-733931111152123906</t>
+          <t>t-712147646559879168</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,20 +8838,20 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-734714075603718144</t>
+          <t>t-801312317355003904</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-734767651981905921</t>
+          <t>t-822370054381522945</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,20 +8864,20 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-735043937040093185</t>
+          <t>t-929369497420685312</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-838333127739260928</t>
+          <t>t-936830929384828928</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-838721199874048000</t>
+          <t>t-936988511051292672</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-960348165114273792</t>
+          <t>t-521700184376770560</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,24 +8916,24 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-973099299910250497</t>
+          <t>t-902843730587115520</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-508042249457139712</t>
+          <t>t-696949735576489985</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C654" t="n">
         <v>1</v>
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-706405441522143232</t>
+          <t>t-697001638108598272</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,11 +8955,11 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-831995329318772736</t>
+          <t>t-527311291191263232</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C656" t="n">
         <v>1</v>
@@ -8968,11 +8968,11 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-518708677113438208</t>
+          <t>t-555323393890058240</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
         <v>1</v>
@@ -8981,20 +8981,20 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-550981789649735680</t>
+          <t>t-555327376440053760</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-676067082081976320</t>
+          <t>t-744191847128436736</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,24 +9007,24 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-689784474884648961</t>
+          <t>t-801391859083988993</t>
         </is>
       </c>
       <c r="B660" t="n">
         <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-822370054381522945</t>
+          <t>t-689731867570900992</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C661" t="n">
         <v>1</v>
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-936830929384828928</t>
+          <t>t-919103523458969600</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-936988511051292672</t>
+          <t>t-562992622130954243</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,37 +9059,37 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-902843730587115520</t>
+          <t>t-636337860757483520</t>
         </is>
       </c>
       <c r="B664" t="n">
         <v>0</v>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-523431319012139009</t>
+          <t>t-708854826730295296</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-551339874838908928</t>
+          <t>t-745418927845453825</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
         <v>1</v>
@@ -9098,20 +9098,20 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-565428032685740033</t>
+          <t>t-776553403992252416</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-694164443224154112</t>
+          <t>t-776953291594866688</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-694343886626394113</t>
+          <t>t-776996787567464448</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-694445663426207744</t>
+          <t>t-777018247778631680</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-740483903366926337</t>
+          <t>t-777139839556648960</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-825956164366172160</t>
+          <t>t-777163982893223936</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-825956302023163905</t>
+          <t>t-785106169677230080</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-825967811814125568</t>
+          <t>t-785108107227561984</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-825983840988467200</t>
+          <t>t-785110315553787904</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,24 +9215,24 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-534323907642142720</t>
+          <t>t-785111654228856832</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-674974370180239360</t>
+          <t>t-785153740848308225</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,20 +9241,20 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-734168300121395200</t>
+          <t>t-785284230573993984</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-803451448700780544</t>
+          <t>t-785337680368467968</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-803454039333556224</t>
+          <t>t-785343194607202304</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,46 +9280,46 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-803455995494027264</t>
+          <t>t-785389967123984386</t>
         </is>
       </c>
       <c r="B681" t="n">
         <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-803466221962215424</t>
+          <t>t-786190856218746880</t>
         </is>
       </c>
       <c r="B682" t="n">
         <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-803470959600467968</t>
+          <t>t-786491706409492481</t>
         </is>
       </c>
       <c r="B683" t="n">
         <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-815040393884467200</t>
+          <t>t-577656940282540032</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-924811540154540032</t>
+          <t>t-820399938416754688</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-924943312192073729</t>
+          <t>t-960667988255850496</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,20 +9358,20 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-540776934658277377</t>
+          <t>t-824143990274588672</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-558414856756293634</t>
+          <t>t-1037871134488707072</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-558416982677422081</t>
+          <t>t-1037879643695529985</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,11 +9397,11 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-709944298301628416</t>
+          <t>t-1037893136482103296</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,11 +9410,11 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-776553403992252416</t>
+          <t>t-1037997508973060096</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-776953291594866688</t>
+          <t>t-703883305427427329</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-776996787567464448</t>
+          <t>t-704164134657486848</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-777018247778631680</t>
+          <t>t-564756286211100672</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-777139839556648960</t>
+          <t>t-565303060420112386</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,20 +9475,20 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-777163982893223936</t>
+          <t>t-565336619021262848</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-820399938416754688</t>
+          <t>t-579496758595584000</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,20 +9501,20 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-796490215078711296</t>
+          <t>t-658189046523412480</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-908138128514437120</t>
+          <t>t-697434910303264773</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-555130566706622465</t>
+          <t>t-826783220507168768</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,20 +9540,20 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-703883305427427329</t>
+          <t>t-936534965277294597</t>
         </is>
       </c>
       <c r="B701" t="n">
         <v>1</v>
       </c>
       <c r="C701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-704164134657486848</t>
+          <t>t-936606274795462656</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,37 +9566,37 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-558523740888109056</t>
+          <t>t-1016952321333497856</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-697434910303264773</t>
+          <t>t-563225583400648704</t>
         </is>
       </c>
       <c r="B704" t="n">
         <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-808956641743732736</t>
+          <t>t-905053100729356288</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
         <v>1</v>
@@ -9605,37 +9605,37 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-809733108471889920</t>
+          <t>t-979975965760720898</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-620194547256029184</t>
+          <t>t-674136729771577344</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-954254379967660032</t>
+          <t>t-720546793344270336</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,20 +9644,20 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-1016952321333497856</t>
+          <t>t-753509017096364033</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-563225583400648704</t>
+          <t>t-777104599379423233</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-701328466483027968</t>
+          <t>t-777106884058763264</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-998840776758120448</t>
+          <t>t-802066289527095297</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-566151747232489472</t>
+          <t>t-802114052063252481</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,11 +9709,11 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-802066289527095297</t>
+          <t>t-843318937064366080</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C714" t="n">
         <v>1</v>
@@ -9722,33 +9722,33 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-802114052063252481</t>
+          <t>t-998772384076320768</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-843318937064366080</t>
+          <t>t-998825906733920257</t>
         </is>
       </c>
       <c r="B716" t="n">
         <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-935268837662052353</t>
+          <t>t-883957999576002561</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-935313787321585664</t>
+          <t>t-590978217546092544</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,46 +9774,46 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-935539265307660289</t>
+          <t>t-792051379564969985</t>
         </is>
       </c>
       <c r="B719" t="n">
         <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-935690311879282688</t>
+          <t>t-1062157078439968770</t>
         </is>
       </c>
       <c r="B720" t="n">
         <v>1</v>
       </c>
       <c r="C720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-936855089326604288</t>
+          <t>t-691264325659422721</t>
         </is>
       </c>
       <c r="B721" t="n">
         <v>1</v>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-640851401892065280</t>
+          <t>t-691280497184362497</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-792051379564969985</t>
+          <t>t-812509278762242048</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,11 +9839,11 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-877794875583934464</t>
+          <t>t-737450472194211841</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C724" t="n">
         <v>1</v>
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-691264325659422721</t>
+          <t>t-737498199435317252</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-691280497184362497</t>
+          <t>t-785264263749308416</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,11 +9878,11 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-732116489394851840</t>
+          <t>t-785310124797669377</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C727" t="n">
         <v>1</v>
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-732306842290946048</t>
+          <t>t-785316828025421824</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-780951872647475200</t>
+          <t>t-785325402981924866</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-946177924222222336</t>
+          <t>t-785347096031268864</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-816256005461987328</t>
+          <t>t-733197295139741697</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-833912149630078976</t>
+          <t>t-780951872647475200</t>
         </is>
       </c>
       <c r="B732" t="n">
